--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Pthlh-Pth2r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Pthlh-Pth2r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,28 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Pthlh</t>
+  </si>
+  <si>
+    <t>Pth2r</t>
+  </si>
+  <si>
     <t>ECs</t>
   </si>
   <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
+    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Pthlh</t>
-  </si>
-  <si>
-    <t>Pth2r</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>26</v>
-      </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.5415855000000001</v>
+        <v>0.841828</v>
       </c>
       <c r="H2">
-        <v>1.083171</v>
+        <v>2.525484</v>
       </c>
       <c r="I2">
-        <v>0.3409397013906864</v>
+        <v>0.7527357071706914</v>
       </c>
       <c r="J2">
-        <v>0.2663449229590454</v>
+        <v>0.8203501395464869</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.226516</v>
+        <v>0.165261</v>
       </c>
       <c r="N2">
-        <v>0.6795479999999999</v>
+        <v>0.330522</v>
       </c>
       <c r="O2">
-        <v>0.5176394414154667</v>
+        <v>0.2628738644684469</v>
       </c>
       <c r="P2">
-        <v>0.5361748461417074</v>
+        <v>0.2081763454351005</v>
       </c>
       <c r="Q2">
-        <v>0.122677781118</v>
+        <v>0.139121337108</v>
       </c>
       <c r="R2">
-        <v>0.736066686708</v>
+        <v>0.8347280226479999</v>
       </c>
       <c r="S2">
-        <v>0.1764838365842309</v>
+        <v>0.1978745442673489</v>
       </c>
       <c r="T2">
-        <v>0.1428074480881911</v>
+        <v>0.1707774940279624</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
         <v>25</v>
       </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.5415855000000001</v>
+        <v>0.841828</v>
       </c>
       <c r="H3">
-        <v>1.083171</v>
+        <v>2.525484</v>
       </c>
       <c r="I3">
-        <v>0.3409397013906864</v>
+        <v>0.7527357071706914</v>
       </c>
       <c r="J3">
-        <v>0.2663449229590454</v>
+        <v>0.8203501395464869</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.0453825</v>
+        <v>0.1873846666666667</v>
       </c>
       <c r="N3">
-        <v>0.090765</v>
+        <v>0.562154</v>
       </c>
       <c r="O3">
-        <v>0.1037091064209037</v>
+        <v>0.2980650696098803</v>
       </c>
       <c r="P3">
-        <v>0.07161511756351586</v>
+        <v>0.3540677028812712</v>
       </c>
       <c r="Q3">
-        <v>0.02457850395375</v>
+        <v>0.1577456591706667</v>
       </c>
       <c r="R3">
-        <v>0.098314015815</v>
+        <v>1.419710932536</v>
       </c>
       <c r="S3">
-        <v>0.03535855177463782</v>
+        <v>0.2243642209556746</v>
       </c>
       <c r="T3">
-        <v>0.01907432297015762</v>
+        <v>0.2904594894675549</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.5415855000000001</v>
+        <v>0.841828</v>
       </c>
       <c r="H4">
-        <v>1.083171</v>
+        <v>2.525484</v>
       </c>
       <c r="I4">
-        <v>0.3409397013906864</v>
+        <v>0.7527357071706914</v>
       </c>
       <c r="J4">
-        <v>0.2663449229590454</v>
+        <v>0.8203501395464869</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M4">
-        <v>0.1428066666666667</v>
+        <v>0.133048</v>
       </c>
       <c r="N4">
-        <v>0.42842</v>
+        <v>0.266096</v>
       </c>
       <c r="O4">
-        <v>0.3263449962198612</v>
+        <v>0.2116339724423665</v>
       </c>
       <c r="P4">
-        <v>0.3380306138551365</v>
+        <v>0.1675982016776448</v>
       </c>
       <c r="Q4">
-        <v>0.07734201997000001</v>
+        <v>0.112003531744</v>
       </c>
       <c r="R4">
-        <v>0.46405211982</v>
+        <v>0.672021190464</v>
       </c>
       <c r="S4">
-        <v>0.1112639655615442</v>
+        <v>0.1593044479077473</v>
       </c>
       <c r="T4">
-        <v>0.09003273780504517</v>
+        <v>0.1374892081339962</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.5415855000000001</v>
+        <v>0.841828</v>
       </c>
       <c r="H5">
-        <v>1.083171</v>
+        <v>2.525484</v>
       </c>
       <c r="I5">
-        <v>0.3409397013906864</v>
+        <v>0.7527357071706914</v>
       </c>
       <c r="J5">
-        <v>0.2663449229590454</v>
+        <v>0.8203501395464869</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -747,28 +744,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.022889</v>
+        <v>0.1429766666666667</v>
       </c>
       <c r="N5">
-        <v>0.06866699999999999</v>
+        <v>0.42893</v>
       </c>
       <c r="O5">
-        <v>0.05230645594376829</v>
+        <v>0.2274270934793063</v>
       </c>
       <c r="P5">
-        <v>0.05417942243964021</v>
+        <v>0.2701577500059835</v>
       </c>
       <c r="Q5">
-        <v>0.0123963505095</v>
+        <v>0.1203617613466667</v>
       </c>
       <c r="R5">
-        <v>0.074378103057</v>
+        <v>1.08325585212</v>
       </c>
       <c r="S5">
-        <v>0.01783334747027345</v>
+        <v>0.1711924940399206</v>
       </c>
       <c r="T5">
-        <v>0.01443041409565155</v>
+        <v>0.2216239479169735</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +773,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.841828</v>
+        <v>0.27653</v>
       </c>
       <c r="H6">
-        <v>2.525484</v>
+        <v>0.55306</v>
       </c>
       <c r="I6">
-        <v>0.5299488020678521</v>
+        <v>0.2472642928293087</v>
       </c>
       <c r="J6">
-        <v>0.6210006004724109</v>
+        <v>0.1796498604535131</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M6">
-        <v>0.226516</v>
+        <v>0.165261</v>
       </c>
       <c r="N6">
-        <v>0.6795479999999999</v>
+        <v>0.330522</v>
       </c>
       <c r="O6">
-        <v>0.5176394414154667</v>
+        <v>0.2628738644684469</v>
       </c>
       <c r="P6">
-        <v>0.5361748461417074</v>
+        <v>0.2081763454351005</v>
       </c>
       <c r="Q6">
-        <v>0.190687511248</v>
+        <v>0.04569962432999999</v>
       </c>
       <c r="R6">
-        <v>1.716187601232</v>
+        <v>0.18279849732</v>
       </c>
       <c r="S6">
-        <v>0.2743224018811987</v>
+        <v>0.06499932020109807</v>
       </c>
       <c r="T6">
-        <v>0.3329649014122028</v>
+        <v>0.03739885140713815</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.841828</v>
+        <v>0.27653</v>
       </c>
       <c r="H7">
-        <v>2.525484</v>
+        <v>0.55306</v>
       </c>
       <c r="I7">
-        <v>0.5299488020678521</v>
+        <v>0.2472642928293087</v>
       </c>
       <c r="J7">
-        <v>0.6210006004724109</v>
+        <v>0.1796498604535131</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.0453825</v>
+        <v>0.1873846666666667</v>
       </c>
       <c r="N7">
-        <v>0.090765</v>
+        <v>0.562154</v>
       </c>
       <c r="O7">
-        <v>0.1037091064209037</v>
+        <v>0.2980650696098803</v>
       </c>
       <c r="P7">
-        <v>0.07161511756351586</v>
+        <v>0.3540677028812712</v>
       </c>
       <c r="Q7">
-        <v>0.03820425921</v>
+        <v>0.05181748187333333</v>
       </c>
       <c r="R7">
-        <v>0.22922555526</v>
+        <v>0.31090489124</v>
       </c>
       <c r="S7">
-        <v>0.0549605167112853</v>
+        <v>0.07370084865420573</v>
       </c>
       <c r="T7">
-        <v>0.04447303100984566</v>
+        <v>0.06360821341371631</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.841828</v>
+        <v>0.27653</v>
       </c>
       <c r="H8">
-        <v>2.525484</v>
+        <v>0.55306</v>
       </c>
       <c r="I8">
-        <v>0.5299488020678521</v>
+        <v>0.2472642928293087</v>
       </c>
       <c r="J8">
-        <v>0.6210006004724109</v>
+        <v>0.1796498604535131</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>0.1428066666666667</v>
+        <v>0.133048</v>
       </c>
       <c r="N8">
-        <v>0.42842</v>
+        <v>0.266096</v>
       </c>
       <c r="O8">
-        <v>0.3263449962198612</v>
+        <v>0.2116339724423665</v>
       </c>
       <c r="P8">
-        <v>0.3380306138551365</v>
+        <v>0.1675982016776448</v>
       </c>
       <c r="Q8">
-        <v>0.1202186505866667</v>
+        <v>0.03679176344</v>
       </c>
       <c r="R8">
-        <v>1.08196785528</v>
+        <v>0.14716705376</v>
       </c>
       <c r="S8">
-        <v>0.1729461398075532</v>
+        <v>0.05232952453461915</v>
       </c>
       <c r="T8">
-        <v>0.2099172141820974</v>
+        <v>0.03010899354364863</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,31 +959,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.841828</v>
+        <v>0.27653</v>
       </c>
       <c r="H9">
-        <v>2.525484</v>
+        <v>0.55306</v>
       </c>
       <c r="I9">
-        <v>0.5299488020678521</v>
+        <v>0.2472642928293087</v>
       </c>
       <c r="J9">
-        <v>0.6210006004724109</v>
+        <v>0.1796498604535131</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -995,524 +992,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.022889</v>
+        <v>0.1429766666666667</v>
       </c>
       <c r="N9">
-        <v>0.06866699999999999</v>
+        <v>0.42893</v>
       </c>
       <c r="O9">
-        <v>0.05230645594376829</v>
+        <v>0.2274270934793063</v>
       </c>
       <c r="P9">
-        <v>0.05417942243964021</v>
+        <v>0.2701577500059835</v>
       </c>
       <c r="Q9">
-        <v>0.019268601092</v>
+        <v>0.03953733763333334</v>
       </c>
       <c r="R9">
-        <v>0.173417409828</v>
+        <v>0.2372240258</v>
       </c>
       <c r="S9">
-        <v>0.02771974366781489</v>
+        <v>0.05623459943938577</v>
       </c>
       <c r="T9">
-        <v>0.03364545386826499</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.5</v>
-      </c>
-      <c r="G10">
-        <v>0.157141</v>
-      </c>
-      <c r="H10">
-        <v>0.314282</v>
-      </c>
-      <c r="I10">
-        <v>0.09892363369446532</v>
-      </c>
-      <c r="J10">
-        <v>0.07727996325364574</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M10">
-        <v>0.226516</v>
-      </c>
-      <c r="N10">
-        <v>0.6795479999999999</v>
-      </c>
-      <c r="O10">
-        <v>0.5176394414154667</v>
-      </c>
-      <c r="P10">
-        <v>0.5361748461417074</v>
-      </c>
-      <c r="Q10">
-        <v>0.035594950756</v>
-      </c>
-      <c r="R10">
-        <v>0.213569704536</v>
-      </c>
-      <c r="S10">
-        <v>0.05120677448839127</v>
-      </c>
-      <c r="T10">
-        <v>0.0414355724073603</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.5</v>
-      </c>
-      <c r="G11">
-        <v>0.157141</v>
-      </c>
-      <c r="H11">
-        <v>0.314282</v>
-      </c>
-      <c r="I11">
-        <v>0.09892363369446532</v>
-      </c>
-      <c r="J11">
-        <v>0.07727996325364574</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.5</v>
-      </c>
-      <c r="M11">
-        <v>0.0453825</v>
-      </c>
-      <c r="N11">
-        <v>0.090765</v>
-      </c>
-      <c r="O11">
-        <v>0.1037091064209037</v>
-      </c>
-      <c r="P11">
-        <v>0.07161511756351586</v>
-      </c>
-      <c r="Q11">
-        <v>0.0071314514325</v>
-      </c>
-      <c r="R11">
-        <v>0.02852580573</v>
-      </c>
-      <c r="S11">
-        <v>0.0102592816543618</v>
-      </c>
-      <c r="T11">
-        <v>0.005534413653714026</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.5</v>
-      </c>
-      <c r="G12">
-        <v>0.157141</v>
-      </c>
-      <c r="H12">
-        <v>0.314282</v>
-      </c>
-      <c r="I12">
-        <v>0.09892363369446532</v>
-      </c>
-      <c r="J12">
-        <v>0.07727996325364574</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M12">
-        <v>0.1428066666666667</v>
-      </c>
-      <c r="N12">
-        <v>0.42842</v>
-      </c>
-      <c r="O12">
-        <v>0.3263449962198612</v>
-      </c>
-      <c r="P12">
-        <v>0.3380306138551365</v>
-      </c>
-      <c r="Q12">
-        <v>0.02244078240666667</v>
-      </c>
-      <c r="R12">
-        <v>0.13464469444</v>
-      </c>
-      <c r="S12">
-        <v>0.03228323286407522</v>
-      </c>
-      <c r="T12">
-        <v>0.02612299341733226</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.5</v>
-      </c>
-      <c r="G13">
-        <v>0.157141</v>
-      </c>
-      <c r="H13">
-        <v>0.314282</v>
-      </c>
-      <c r="I13">
-        <v>0.09892363369446532</v>
-      </c>
-      <c r="J13">
-        <v>0.07727996325364574</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M13">
-        <v>0.022889</v>
-      </c>
-      <c r="N13">
-        <v>0.06866699999999999</v>
-      </c>
-      <c r="O13">
-        <v>0.05230645594376829</v>
-      </c>
-      <c r="P13">
-        <v>0.05417942243964021</v>
-      </c>
-      <c r="Q13">
-        <v>0.003596800348999999</v>
-      </c>
-      <c r="R13">
-        <v>0.021580802094</v>
-      </c>
-      <c r="S13">
-        <v>0.005174344687637022</v>
-      </c>
-      <c r="T13">
-        <v>0.004186983775239145</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G14">
-        <v>0.04795366666666667</v>
-      </c>
-      <c r="H14">
-        <v>0.143861</v>
-      </c>
-      <c r="I14">
-        <v>0.03018786284699617</v>
-      </c>
-      <c r="J14">
-        <v>0.03537451331489785</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M14">
-        <v>0.226516</v>
-      </c>
-      <c r="N14">
-        <v>0.6795479999999999</v>
-      </c>
-      <c r="O14">
-        <v>0.5176394414154667</v>
-      </c>
-      <c r="P14">
-        <v>0.5361748461417074</v>
-      </c>
-      <c r="Q14">
-        <v>0.01086227275866667</v>
-      </c>
-      <c r="R14">
-        <v>0.09776045482799998</v>
-      </c>
-      <c r="S14">
-        <v>0.01562642846164582</v>
-      </c>
-      <c r="T14">
-        <v>0.01896692423395314</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G15">
-        <v>0.04795366666666667</v>
-      </c>
-      <c r="H15">
-        <v>0.143861</v>
-      </c>
-      <c r="I15">
-        <v>0.03018786284699617</v>
-      </c>
-      <c r="J15">
-        <v>0.03537451331489785</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>0.5</v>
-      </c>
-      <c r="M15">
-        <v>0.0453825</v>
-      </c>
-      <c r="N15">
-        <v>0.090765</v>
-      </c>
-      <c r="O15">
-        <v>0.1037091064209037</v>
-      </c>
-      <c r="P15">
-        <v>0.07161511756351586</v>
-      </c>
-      <c r="Q15">
-        <v>0.0021762572775</v>
-      </c>
-      <c r="R15">
-        <v>0.013057543665</v>
-      </c>
-      <c r="S15">
-        <v>0.00313075628061877</v>
-      </c>
-      <c r="T15">
-        <v>0.002533349929798567</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G16">
-        <v>0.04795366666666667</v>
-      </c>
-      <c r="H16">
-        <v>0.143861</v>
-      </c>
-      <c r="I16">
-        <v>0.03018786284699617</v>
-      </c>
-      <c r="J16">
-        <v>0.03537451331489785</v>
-      </c>
-      <c r="K16">
-        <v>2</v>
-      </c>
-      <c r="L16">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M16">
-        <v>0.1428066666666667</v>
-      </c>
-      <c r="N16">
-        <v>0.42842</v>
-      </c>
-      <c r="O16">
-        <v>0.3263449962198612</v>
-      </c>
-      <c r="P16">
-        <v>0.3380306138551365</v>
-      </c>
-      <c r="Q16">
-        <v>0.006848103291111111</v>
-      </c>
-      <c r="R16">
-        <v>0.06163292961999999</v>
-      </c>
-      <c r="S16">
-        <v>0.009851657986688654</v>
-      </c>
-      <c r="T16">
-        <v>0.01195766845066162</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G17">
-        <v>0.04795366666666667</v>
-      </c>
-      <c r="H17">
-        <v>0.143861</v>
-      </c>
-      <c r="I17">
-        <v>0.03018786284699617</v>
-      </c>
-      <c r="J17">
-        <v>0.03537451331489785</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M17">
-        <v>0.022889</v>
-      </c>
-      <c r="N17">
-        <v>0.06866699999999999</v>
-      </c>
-      <c r="O17">
-        <v>0.05230645594376829</v>
-      </c>
-      <c r="P17">
-        <v>0.05417942243964021</v>
-      </c>
-      <c r="Q17">
-        <v>0.001097611476333333</v>
-      </c>
-      <c r="R17">
-        <v>0.009878503286999999</v>
-      </c>
-      <c r="S17">
-        <v>0.001579020118042925</v>
-      </c>
-      <c r="T17">
-        <v>0.001916570700484528</v>
+        <v>0.04853380208901</v>
       </c>
     </row>
   </sheetData>
